--- a/heure taf.xlsx
+++ b/heure taf.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Windows\Bureau\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Travail\Laurence-Mourot\Laurence_Mourot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82086640-2A3B-44A5-9562-2366043D8B32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21257C25-0D7F-4B16-8CF8-84B48F3E81B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9AC8F85F-01E4-4591-A1C6-7334E1E399D8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{9AC8F85F-01E4-4591-A1C6-7334E1E399D8}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Heure de debut</t>
   </si>
@@ -68,6 +67,15 @@
   </si>
   <si>
     <t xml:space="preserve">Recherche police et ajout police </t>
+  </si>
+  <si>
+    <t>ajout bulle activité</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fin partie front </t>
+  </si>
+  <si>
+    <t>ajout des deux pages activité et inplémentations du style de base</t>
   </si>
 </sst>
 </file>
@@ -425,19 +433,19 @@
   <dimension ref="A1:H37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="15.28515625" customWidth="1"/>
-    <col min="3" max="3" width="14.140625" customWidth="1"/>
-    <col min="4" max="4" width="13.28515625" customWidth="1"/>
-    <col min="5" max="5" width="53.140625" customWidth="1"/>
-    <col min="6" max="6" width="15.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" customWidth="1"/>
+    <col min="3" max="3" width="14.109375" customWidth="1"/>
+    <col min="4" max="4" width="13.33203125" customWidth="1"/>
+    <col min="5" max="5" width="53.109375" customWidth="1"/>
+    <col min="6" max="6" width="15.6640625" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -463,7 +471,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -492,7 +500,7 @@
         <v>3.3333333333333215</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -513,7 +521,7 @@
         <v>2.1666666666666643</v>
       </c>
       <c r="G3">
-        <f>G2+F3</f>
+        <f t="shared" ref="G3:G37" si="1">G2+F3</f>
         <v>2.4999999999999964</v>
       </c>
       <c r="H3">
@@ -521,7 +529,7 @@
         <v>24.999999999999964</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -542,66 +550,102 @@
         <v>0.75</v>
       </c>
       <c r="G4">
-        <f>G3+F4</f>
+        <f t="shared" si="1"/>
         <v>3.2499999999999964</v>
       </c>
       <c r="H4">
-        <f t="shared" ref="H4:H37" si="1">G4*10</f>
+        <f t="shared" ref="H4:H37" si="2">G4*10</f>
         <v>32.499999999999964</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
+      <c r="B5" s="2">
+        <v>0.4375</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0.50694444444444442</v>
+      </c>
+      <c r="D5" s="1">
+        <v>44665</v>
+      </c>
+      <c r="E5" t="s">
+        <v>11</v>
+      </c>
       <c r="F5" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.6666666666666661</v>
       </c>
       <c r="G5">
-        <f>G4+F5</f>
-        <v>3.2499999999999964</v>
+        <f t="shared" si="1"/>
+        <v>4.9166666666666625</v>
       </c>
       <c r="H5">
-        <f t="shared" si="1"/>
-        <v>32.499999999999964</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>49.166666666666629</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
+      <c r="B6" s="2">
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0.50694444444444442</v>
+      </c>
+      <c r="D6" s="1">
+        <v>44667</v>
+      </c>
+      <c r="E6" t="s">
+        <v>12</v>
+      </c>
       <c r="F6" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="G6">
-        <f>G5+F6</f>
-        <v>3.2499999999999964</v>
+        <f t="shared" si="1"/>
+        <v>6.4166666666666625</v>
       </c>
       <c r="H6">
-        <f t="shared" si="1"/>
-        <v>32.499999999999964</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>64.166666666666629</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
+      <c r="B7" s="2">
+        <v>0.9458333333333333</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0.98819444444444438</v>
+      </c>
+      <c r="D7" s="1">
+        <v>44668</v>
+      </c>
+      <c r="E7" t="s">
+        <v>13</v>
+      </c>
       <c r="F7" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.0166666666666657</v>
       </c>
       <c r="G7">
-        <f>G6+F7</f>
-        <v>3.2499999999999964</v>
+        <f t="shared" si="1"/>
+        <v>7.4333333333333282</v>
       </c>
       <c r="H7">
-        <f t="shared" si="1"/>
-        <v>32.499999999999964</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>74.333333333333286</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -610,15 +654,15 @@
         <v>0</v>
       </c>
       <c r="G8">
-        <f>G7+F8</f>
-        <v>3.2499999999999964</v>
+        <f t="shared" si="1"/>
+        <v>7.4333333333333282</v>
       </c>
       <c r="H8">
-        <f t="shared" si="1"/>
-        <v>32.499999999999964</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>74.333333333333286</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -627,15 +671,15 @@
         <v>0</v>
       </c>
       <c r="G9">
-        <f>G8+F9</f>
-        <v>3.2499999999999964</v>
+        <f t="shared" si="1"/>
+        <v>7.4333333333333282</v>
       </c>
       <c r="H9">
-        <f t="shared" si="1"/>
-        <v>32.499999999999964</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>74.333333333333286</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -644,15 +688,15 @@
         <v>0</v>
       </c>
       <c r="G10">
-        <f>G9+F10</f>
-        <v>3.2499999999999964</v>
+        <f t="shared" si="1"/>
+        <v>7.4333333333333282</v>
       </c>
       <c r="H10">
-        <f t="shared" si="1"/>
-        <v>32.499999999999964</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>74.333333333333286</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -661,15 +705,15 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <f>G10+F11</f>
-        <v>3.2499999999999964</v>
+        <f t="shared" si="1"/>
+        <v>7.4333333333333282</v>
       </c>
       <c r="H11">
-        <f t="shared" si="1"/>
-        <v>32.499999999999964</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>74.333333333333286</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -678,15 +722,15 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <f>G11+F12</f>
-        <v>3.2499999999999964</v>
+        <f t="shared" si="1"/>
+        <v>7.4333333333333282</v>
       </c>
       <c r="H12">
-        <f t="shared" si="1"/>
-        <v>32.499999999999964</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>74.333333333333286</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -695,15 +739,15 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <f>G12+F13</f>
-        <v>3.2499999999999964</v>
+        <f t="shared" si="1"/>
+        <v>7.4333333333333282</v>
       </c>
       <c r="H13">
-        <f t="shared" si="1"/>
-        <v>32.499999999999964</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>74.333333333333286</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -712,15 +756,15 @@
         <v>0</v>
       </c>
       <c r="G14">
-        <f>G13+F14</f>
-        <v>3.2499999999999964</v>
+        <f t="shared" si="1"/>
+        <v>7.4333333333333282</v>
       </c>
       <c r="H14">
-        <f t="shared" si="1"/>
-        <v>32.499999999999964</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>74.333333333333286</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -729,15 +773,15 @@
         <v>0</v>
       </c>
       <c r="G15">
-        <f>G14+F15</f>
-        <v>3.2499999999999964</v>
+        <f t="shared" si="1"/>
+        <v>7.4333333333333282</v>
       </c>
       <c r="H15">
-        <f t="shared" si="1"/>
-        <v>32.499999999999964</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>74.333333333333286</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -746,15 +790,15 @@
         <v>0</v>
       </c>
       <c r="G16">
-        <f>G15+F16</f>
-        <v>3.2499999999999964</v>
+        <f t="shared" si="1"/>
+        <v>7.4333333333333282</v>
       </c>
       <c r="H16">
-        <f t="shared" si="1"/>
-        <v>32.499999999999964</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>74.333333333333286</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -763,15 +807,15 @@
         <v>0</v>
       </c>
       <c r="G17">
-        <f>G16+F17</f>
-        <v>3.2499999999999964</v>
+        <f t="shared" si="1"/>
+        <v>7.4333333333333282</v>
       </c>
       <c r="H17">
-        <f t="shared" si="1"/>
-        <v>32.499999999999964</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>74.333333333333286</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -780,15 +824,15 @@
         <v>0</v>
       </c>
       <c r="G18">
-        <f>G17+F18</f>
-        <v>3.2499999999999964</v>
+        <f t="shared" si="1"/>
+        <v>7.4333333333333282</v>
       </c>
       <c r="H18">
-        <f t="shared" si="1"/>
-        <v>32.499999999999964</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>74.333333333333286</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -797,15 +841,15 @@
         <v>0</v>
       </c>
       <c r="G19">
-        <f>G18+F19</f>
-        <v>3.2499999999999964</v>
+        <f t="shared" si="1"/>
+        <v>7.4333333333333282</v>
       </c>
       <c r="H19">
-        <f t="shared" si="1"/>
-        <v>32.499999999999964</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>74.333333333333286</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -814,15 +858,15 @@
         <v>0</v>
       </c>
       <c r="G20">
-        <f>G19+F20</f>
-        <v>3.2499999999999964</v>
+        <f t="shared" si="1"/>
+        <v>7.4333333333333282</v>
       </c>
       <c r="H20">
-        <f t="shared" si="1"/>
-        <v>32.499999999999964</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>74.333333333333286</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -831,15 +875,15 @@
         <v>0</v>
       </c>
       <c r="G21">
-        <f>G20+F21</f>
-        <v>3.2499999999999964</v>
+        <f t="shared" si="1"/>
+        <v>7.4333333333333282</v>
       </c>
       <c r="H21">
-        <f t="shared" si="1"/>
-        <v>32.499999999999964</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>74.333333333333286</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
@@ -848,15 +892,15 @@
         <v>0</v>
       </c>
       <c r="G22">
-        <f>G21+F22</f>
-        <v>3.2499999999999964</v>
+        <f t="shared" si="1"/>
+        <v>7.4333333333333282</v>
       </c>
       <c r="H22">
-        <f t="shared" si="1"/>
-        <v>32.499999999999964</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>74.333333333333286</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
@@ -865,15 +909,15 @@
         <v>0</v>
       </c>
       <c r="G23">
-        <f>G22+F23</f>
-        <v>3.2499999999999964</v>
+        <f t="shared" si="1"/>
+        <v>7.4333333333333282</v>
       </c>
       <c r="H23">
-        <f t="shared" si="1"/>
-        <v>32.499999999999964</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>74.333333333333286</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
@@ -882,15 +926,15 @@
         <v>0</v>
       </c>
       <c r="G24">
-        <f>G23+F24</f>
-        <v>3.2499999999999964</v>
+        <f t="shared" si="1"/>
+        <v>7.4333333333333282</v>
       </c>
       <c r="H24">
-        <f t="shared" si="1"/>
-        <v>32.499999999999964</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>74.333333333333286</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
@@ -899,15 +943,15 @@
         <v>0</v>
       </c>
       <c r="G25">
-        <f>G24+F25</f>
-        <v>3.2499999999999964</v>
+        <f t="shared" si="1"/>
+        <v>7.4333333333333282</v>
       </c>
       <c r="H25">
-        <f t="shared" si="1"/>
-        <v>32.499999999999964</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>74.333333333333286</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
@@ -916,15 +960,15 @@
         <v>0</v>
       </c>
       <c r="G26">
-        <f>G25+F26</f>
-        <v>3.2499999999999964</v>
+        <f t="shared" si="1"/>
+        <v>7.4333333333333282</v>
       </c>
       <c r="H26">
-        <f t="shared" si="1"/>
-        <v>32.499999999999964</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>74.333333333333286</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
@@ -933,15 +977,15 @@
         <v>0</v>
       </c>
       <c r="G27">
-        <f>G26+F27</f>
-        <v>3.2499999999999964</v>
+        <f t="shared" si="1"/>
+        <v>7.4333333333333282</v>
       </c>
       <c r="H27">
-        <f t="shared" si="1"/>
-        <v>32.499999999999964</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>74.333333333333286</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
@@ -950,15 +994,15 @@
         <v>0</v>
       </c>
       <c r="G28">
-        <f>G27+F28</f>
-        <v>3.2499999999999964</v>
+        <f t="shared" si="1"/>
+        <v>7.4333333333333282</v>
       </c>
       <c r="H28">
-        <f t="shared" si="1"/>
-        <v>32.499999999999964</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>74.333333333333286</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
@@ -967,15 +1011,15 @@
         <v>0</v>
       </c>
       <c r="G29">
-        <f>G28+F29</f>
-        <v>3.2499999999999964</v>
+        <f t="shared" si="1"/>
+        <v>7.4333333333333282</v>
       </c>
       <c r="H29">
-        <f t="shared" si="1"/>
-        <v>32.499999999999964</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>74.333333333333286</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
@@ -984,15 +1028,15 @@
         <v>0</v>
       </c>
       <c r="G30">
-        <f>G29+F30</f>
-        <v>3.2499999999999964</v>
+        <f t="shared" si="1"/>
+        <v>7.4333333333333282</v>
       </c>
       <c r="H30">
-        <f t="shared" si="1"/>
-        <v>32.499999999999964</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>74.333333333333286</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1001,15 +1045,15 @@
         <v>0</v>
       </c>
       <c r="G31">
-        <f>G30+F31</f>
-        <v>3.2499999999999964</v>
+        <f t="shared" si="1"/>
+        <v>7.4333333333333282</v>
       </c>
       <c r="H31">
-        <f t="shared" si="1"/>
-        <v>32.499999999999964</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>74.333333333333286</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>31</v>
       </c>
@@ -1018,15 +1062,15 @@
         <v>0</v>
       </c>
       <c r="G32">
-        <f>G31+F32</f>
-        <v>3.2499999999999964</v>
+        <f t="shared" si="1"/>
+        <v>7.4333333333333282</v>
       </c>
       <c r="H32">
-        <f t="shared" si="1"/>
-        <v>32.499999999999964</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>74.333333333333286</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>32</v>
       </c>
@@ -1035,15 +1079,15 @@
         <v>0</v>
       </c>
       <c r="G33">
-        <f>G32+F33</f>
-        <v>3.2499999999999964</v>
+        <f t="shared" si="1"/>
+        <v>7.4333333333333282</v>
       </c>
       <c r="H33">
-        <f t="shared" si="1"/>
-        <v>32.499999999999964</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>74.333333333333286</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>33</v>
       </c>
@@ -1052,15 +1096,15 @@
         <v>0</v>
       </c>
       <c r="G34">
-        <f>G33+F34</f>
-        <v>3.2499999999999964</v>
+        <f t="shared" si="1"/>
+        <v>7.4333333333333282</v>
       </c>
       <c r="H34">
-        <f t="shared" si="1"/>
-        <v>32.499999999999964</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>74.333333333333286</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>34</v>
       </c>
@@ -1069,15 +1113,15 @@
         <v>0</v>
       </c>
       <c r="G35">
-        <f>G34+F35</f>
-        <v>3.2499999999999964</v>
+        <f t="shared" si="1"/>
+        <v>7.4333333333333282</v>
       </c>
       <c r="H35">
-        <f t="shared" si="1"/>
-        <v>32.499999999999964</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>74.333333333333286</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>35</v>
       </c>
@@ -1086,15 +1130,15 @@
         <v>0</v>
       </c>
       <c r="G36">
-        <f>G35+F36</f>
-        <v>3.2499999999999964</v>
+        <f t="shared" si="1"/>
+        <v>7.4333333333333282</v>
       </c>
       <c r="H36">
-        <f t="shared" si="1"/>
-        <v>32.499999999999964</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>74.333333333333286</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>36</v>
       </c>
@@ -1103,12 +1147,12 @@
         <v>0</v>
       </c>
       <c r="G37">
-        <f>G36+F37</f>
-        <v>3.2499999999999964</v>
+        <f t="shared" si="1"/>
+        <v>7.4333333333333282</v>
       </c>
       <c r="H37">
-        <f t="shared" si="1"/>
-        <v>32.499999999999964</v>
+        <f t="shared" si="2"/>
+        <v>74.333333333333286</v>
       </c>
     </row>
   </sheetData>

--- a/heure taf.xlsx
+++ b/heure taf.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Travail\Laurence-Mourot\Laurence_Mourot\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Travail\Laurence_Mourot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21257C25-0D7F-4B16-8CF8-84B48F3E81B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E6C00DB-9B0F-4E12-818C-A53FDB8D525A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{9AC8F85F-01E4-4591-A1C6-7334E1E399D8}"/>
+    <workbookView xWindow="2085" yWindow="1440" windowWidth="21600" windowHeight="11385" xr2:uid="{9AC8F85F-01E4-4591-A1C6-7334E1E399D8}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Heure de debut</t>
   </si>
@@ -76,6 +76,21 @@
   </si>
   <si>
     <t>ajout des deux pages activité et inplémentations du style de base</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mocifiaction background et amélioration graphique </t>
+  </si>
+  <si>
+    <t>debut de travail sur le responsive</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Premier virement </t>
+  </si>
+  <si>
+    <t>Info virement</t>
+  </si>
+  <si>
+    <t>avancement travail responsive pour telephone</t>
   </si>
 </sst>
 </file>
@@ -430,22 +445,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC8B4A5F-469D-4A94-8FD7-56F7A25483BC}">
-  <dimension ref="A1:H37"/>
+  <dimension ref="A1:I37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="15.33203125" customWidth="1"/>
-    <col min="3" max="3" width="14.109375" customWidth="1"/>
-    <col min="4" max="4" width="13.33203125" customWidth="1"/>
-    <col min="5" max="5" width="53.109375" customWidth="1"/>
-    <col min="6" max="6" width="15.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" customWidth="1"/>
+    <col min="3" max="3" width="14.140625" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" customWidth="1"/>
+    <col min="5" max="5" width="53.140625" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -470,8 +486,11 @@
       <c r="H1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -500,7 +519,7 @@
         <v>3.3333333333333215</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -529,12 +548,12 @@
         <v>24.999999999999964</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <v>0.85416666666666663</v>
+        <v>0.8125</v>
       </c>
       <c r="C4" s="2">
         <v>0.88541666666666663</v>
@@ -547,18 +566,18 @@
       </c>
       <c r="F4" s="3">
         <f t="shared" si="0"/>
-        <v>0.75</v>
+        <v>1.7499999999999991</v>
       </c>
       <c r="G4">
         <f t="shared" si="1"/>
-        <v>3.2499999999999964</v>
+        <v>4.2499999999999956</v>
       </c>
       <c r="H4">
         <f t="shared" ref="H4:H37" si="2">G4*10</f>
-        <v>32.499999999999964</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+        <v>42.499999999999957</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -580,14 +599,14 @@
       </c>
       <c r="G5">
         <f t="shared" si="1"/>
-        <v>4.9166666666666625</v>
+        <v>5.9166666666666616</v>
       </c>
       <c r="H5">
         <f t="shared" si="2"/>
-        <v>49.166666666666629</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+        <v>59.166666666666615</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -609,14 +628,14 @@
       </c>
       <c r="G6">
         <f t="shared" si="1"/>
-        <v>6.4166666666666625</v>
+        <v>7.4166666666666616</v>
       </c>
       <c r="H6">
         <f t="shared" si="2"/>
-        <v>64.166666666666629</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+        <v>74.166666666666615</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -638,48 +657,72 @@
       </c>
       <c r="G7">
         <f t="shared" si="1"/>
-        <v>7.4333333333333282</v>
+        <v>8.4333333333333265</v>
       </c>
       <c r="H7">
         <f t="shared" si="2"/>
-        <v>74.333333333333286</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+        <v>84.333333333333258</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
+      <c r="B8" s="2">
+        <v>0.56944444444444442</v>
+      </c>
+      <c r="C8" s="2">
+        <v>0.63194444444444442</v>
+      </c>
+      <c r="D8" s="1">
+        <v>44680</v>
+      </c>
+      <c r="E8" t="s">
+        <v>14</v>
+      </c>
       <c r="F8" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="G8">
         <f t="shared" si="1"/>
-        <v>7.4333333333333282</v>
+        <v>9.9333333333333265</v>
       </c>
       <c r="H8">
         <f t="shared" si="2"/>
-        <v>74.333333333333286</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+        <v>99.333333333333258</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
+      <c r="B9" s="2">
+        <v>0.43263888888888885</v>
+      </c>
+      <c r="C9" s="2">
+        <v>0.49513888888888885</v>
+      </c>
+      <c r="D9" s="1">
+        <v>44687</v>
+      </c>
+      <c r="E9" t="s">
+        <v>15</v>
+      </c>
       <c r="F9" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="G9">
         <f t="shared" si="1"/>
-        <v>7.4333333333333282</v>
+        <v>11.433333333333326</v>
       </c>
       <c r="H9">
         <f t="shared" si="2"/>
-        <v>74.333333333333286</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+        <v>114.33333333333326</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -688,32 +731,46 @@
         <v>0</v>
       </c>
       <c r="G10">
-        <f t="shared" si="1"/>
-        <v>7.4333333333333282</v>
+        <v>0</v>
       </c>
       <c r="H10">
         <f t="shared" si="2"/>
-        <v>74.333333333333286</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="I10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
+      <c r="B11" s="2">
+        <v>0.56041666666666667</v>
+      </c>
+      <c r="C11" s="2">
+        <v>0.6875</v>
+      </c>
+      <c r="D11" s="1">
+        <v>44750</v>
+      </c>
+      <c r="E11" t="s">
+        <v>18</v>
+      </c>
       <c r="F11" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3.05</v>
       </c>
       <c r="G11">
         <f t="shared" si="1"/>
-        <v>7.4333333333333282</v>
+        <v>3.05</v>
       </c>
       <c r="H11">
         <f t="shared" si="2"/>
-        <v>74.333333333333286</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+        <v>30.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -723,14 +780,14 @@
       </c>
       <c r="G12">
         <f t="shared" si="1"/>
-        <v>7.4333333333333282</v>
+        <v>3.05</v>
       </c>
       <c r="H12">
         <f t="shared" si="2"/>
-        <v>74.333333333333286</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+        <v>30.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -740,14 +797,14 @@
       </c>
       <c r="G13">
         <f t="shared" si="1"/>
-        <v>7.4333333333333282</v>
+        <v>3.05</v>
       </c>
       <c r="H13">
         <f t="shared" si="2"/>
-        <v>74.333333333333286</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+        <v>30.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -757,14 +814,14 @@
       </c>
       <c r="G14">
         <f t="shared" si="1"/>
-        <v>7.4333333333333282</v>
+        <v>3.05</v>
       </c>
       <c r="H14">
         <f t="shared" si="2"/>
-        <v>74.333333333333286</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+        <v>30.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -774,14 +831,14 @@
       </c>
       <c r="G15">
         <f t="shared" si="1"/>
-        <v>7.4333333333333282</v>
+        <v>3.05</v>
       </c>
       <c r="H15">
         <f t="shared" si="2"/>
-        <v>74.333333333333286</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+        <v>30.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -791,14 +848,14 @@
       </c>
       <c r="G16">
         <f t="shared" si="1"/>
-        <v>7.4333333333333282</v>
+        <v>3.05</v>
       </c>
       <c r="H16">
         <f t="shared" si="2"/>
-        <v>74.333333333333286</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+        <v>30.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -808,14 +865,14 @@
       </c>
       <c r="G17">
         <f t="shared" si="1"/>
-        <v>7.4333333333333282</v>
+        <v>3.05</v>
       </c>
       <c r="H17">
         <f t="shared" si="2"/>
-        <v>74.333333333333286</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+        <v>30.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -825,14 +882,14 @@
       </c>
       <c r="G18">
         <f t="shared" si="1"/>
-        <v>7.4333333333333282</v>
+        <v>3.05</v>
       </c>
       <c r="H18">
         <f t="shared" si="2"/>
-        <v>74.333333333333286</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+        <v>30.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -842,14 +899,14 @@
       </c>
       <c r="G19">
         <f t="shared" si="1"/>
-        <v>7.4333333333333282</v>
+        <v>3.05</v>
       </c>
       <c r="H19">
         <f t="shared" si="2"/>
-        <v>74.333333333333286</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+        <v>30.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -859,14 +916,14 @@
       </c>
       <c r="G20">
         <f t="shared" si="1"/>
-        <v>7.4333333333333282</v>
+        <v>3.05</v>
       </c>
       <c r="H20">
         <f t="shared" si="2"/>
-        <v>74.333333333333286</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+        <v>30.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -876,14 +933,14 @@
       </c>
       <c r="G21">
         <f t="shared" si="1"/>
-        <v>7.4333333333333282</v>
+        <v>3.05</v>
       </c>
       <c r="H21">
         <f t="shared" si="2"/>
-        <v>74.333333333333286</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+        <v>30.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -893,14 +950,14 @@
       </c>
       <c r="G22">
         <f t="shared" si="1"/>
-        <v>7.4333333333333282</v>
+        <v>3.05</v>
       </c>
       <c r="H22">
         <f t="shared" si="2"/>
-        <v>74.333333333333286</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+        <v>30.5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -910,14 +967,14 @@
       </c>
       <c r="G23">
         <f t="shared" si="1"/>
-        <v>7.4333333333333282</v>
+        <v>3.05</v>
       </c>
       <c r="H23">
         <f t="shared" si="2"/>
-        <v>74.333333333333286</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+        <v>30.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -927,14 +984,14 @@
       </c>
       <c r="G24">
         <f t="shared" si="1"/>
-        <v>7.4333333333333282</v>
+        <v>3.05</v>
       </c>
       <c r="H24">
         <f t="shared" si="2"/>
-        <v>74.333333333333286</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+        <v>30.5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -944,14 +1001,14 @@
       </c>
       <c r="G25">
         <f t="shared" si="1"/>
-        <v>7.4333333333333282</v>
+        <v>3.05</v>
       </c>
       <c r="H25">
         <f t="shared" si="2"/>
-        <v>74.333333333333286</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+        <v>30.5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -961,14 +1018,14 @@
       </c>
       <c r="G26">
         <f t="shared" si="1"/>
-        <v>7.4333333333333282</v>
+        <v>3.05</v>
       </c>
       <c r="H26">
         <f t="shared" si="2"/>
-        <v>74.333333333333286</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+        <v>30.5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -978,14 +1035,14 @@
       </c>
       <c r="G27">
         <f t="shared" si="1"/>
-        <v>7.4333333333333282</v>
+        <v>3.05</v>
       </c>
       <c r="H27">
         <f t="shared" si="2"/>
-        <v>74.333333333333286</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+        <v>30.5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -995,14 +1052,14 @@
       </c>
       <c r="G28">
         <f t="shared" si="1"/>
-        <v>7.4333333333333282</v>
+        <v>3.05</v>
       </c>
       <c r="H28">
         <f t="shared" si="2"/>
-        <v>74.333333333333286</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+        <v>30.5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1012,14 +1069,14 @@
       </c>
       <c r="G29">
         <f t="shared" si="1"/>
-        <v>7.4333333333333282</v>
+        <v>3.05</v>
       </c>
       <c r="H29">
         <f t="shared" si="2"/>
-        <v>74.333333333333286</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+        <v>30.5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1029,14 +1086,14 @@
       </c>
       <c r="G30">
         <f t="shared" si="1"/>
-        <v>7.4333333333333282</v>
+        <v>3.05</v>
       </c>
       <c r="H30">
         <f t="shared" si="2"/>
-        <v>74.333333333333286</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+        <v>30.5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1046,14 +1103,14 @@
       </c>
       <c r="G31">
         <f t="shared" si="1"/>
-        <v>7.4333333333333282</v>
+        <v>3.05</v>
       </c>
       <c r="H31">
         <f t="shared" si="2"/>
-        <v>74.333333333333286</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+        <v>30.5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -1063,14 +1120,14 @@
       </c>
       <c r="G32">
         <f t="shared" si="1"/>
-        <v>7.4333333333333282</v>
+        <v>3.05</v>
       </c>
       <c r="H32">
         <f t="shared" si="2"/>
-        <v>74.333333333333286</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+        <v>30.5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -1080,14 +1137,14 @@
       </c>
       <c r="G33">
         <f t="shared" si="1"/>
-        <v>7.4333333333333282</v>
+        <v>3.05</v>
       </c>
       <c r="H33">
         <f t="shared" si="2"/>
-        <v>74.333333333333286</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+        <v>30.5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -1097,14 +1154,14 @@
       </c>
       <c r="G34">
         <f t="shared" si="1"/>
-        <v>7.4333333333333282</v>
+        <v>3.05</v>
       </c>
       <c r="H34">
         <f t="shared" si="2"/>
-        <v>74.333333333333286</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+        <v>30.5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -1114,14 +1171,14 @@
       </c>
       <c r="G35">
         <f t="shared" si="1"/>
-        <v>7.4333333333333282</v>
+        <v>3.05</v>
       </c>
       <c r="H35">
         <f t="shared" si="2"/>
-        <v>74.333333333333286</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+        <v>30.5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -1131,14 +1188,14 @@
       </c>
       <c r="G36">
         <f t="shared" si="1"/>
-        <v>7.4333333333333282</v>
+        <v>3.05</v>
       </c>
       <c r="H36">
         <f t="shared" si="2"/>
-        <v>74.333333333333286</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+        <v>30.5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
@@ -1148,11 +1205,11 @@
       </c>
       <c r="G37">
         <f t="shared" si="1"/>
-        <v>7.4333333333333282</v>
+        <v>3.05</v>
       </c>
       <c r="H37">
         <f t="shared" si="2"/>
-        <v>74.333333333333286</v>
+        <v>30.5</v>
       </c>
     </row>
   </sheetData>
